--- a/data/hw/SexGenes.xlsx
+++ b/data/hw/SexGenes.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dancikg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dancikg/Desktop/OneDrive - Eastern Connecticut State University/easternct/COURSES/CSC315/2021-Fall/labs/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF906B-741D-5E4C-9731-F099159091AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="probes" localSheetId="0">Sheet1!$A$1:$D$13</definedName>
+    <definedName name="probes" localSheetId="0">Sheet1!$A$1:$D$11</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,9 +31,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="probes" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/dancikg/probes.csv" space="1" consecutive="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="probes" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/dancikg/probes.csv" space="1" consecutive="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -46,74 +47,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>logFC</t>
   </si>
   <si>
-    <t>214218_s_at</t>
-  </si>
-  <si>
     <t>XIST</t>
   </si>
   <si>
-    <t>221728_x_at</t>
-  </si>
-  <si>
-    <t>201909_at</t>
-  </si>
-  <si>
     <t>RPS4Y1</t>
   </si>
   <si>
-    <t>206700_s_at</t>
-  </si>
-  <si>
     <t>KDM5D</t>
   </si>
   <si>
-    <t>205000_at</t>
-  </si>
-  <si>
     <t>DDX3Y</t>
   </si>
   <si>
-    <t>204409_s_at</t>
-  </si>
-  <si>
     <t>EIF1AY</t>
   </si>
   <si>
-    <t>204410_at</t>
-  </si>
-  <si>
-    <t>214131_at</t>
-  </si>
-  <si>
     <t>TXLNGY</t>
   </si>
   <si>
-    <t>206624_at</t>
-  </si>
-  <si>
     <t>USP9Y</t>
   </si>
   <si>
-    <t>214983_at</t>
-  </si>
-  <si>
-    <t>TTTY15</t>
-  </si>
-  <si>
-    <t>207063_at</t>
-  </si>
-  <si>
-    <t>NCRNA00185 /// TTTY14</t>
-  </si>
-  <si>
-    <t>211149_at</t>
-  </si>
-  <si>
     <t>UTY</t>
   </si>
   <si>
@@ -124,14 +83,58 @@
   </si>
   <si>
     <t>FDR</t>
+  </si>
+  <si>
+    <t>ENSG00000129824.14</t>
+  </si>
+  <si>
+    <t>ENSG00000067048.15</t>
+  </si>
+  <si>
+    <t>ENSG00000229807.8</t>
+  </si>
+  <si>
+    <t>ENSG00000012817.14</t>
+  </si>
+  <si>
+    <t>ENSG00000198692.8</t>
+  </si>
+  <si>
+    <t>ENSG00000067646.10</t>
+  </si>
+  <si>
+    <t>ZFY</t>
+  </si>
+  <si>
+    <t>ENSG00000099725.13</t>
+  </si>
+  <si>
+    <t>PRKY</t>
+  </si>
+  <si>
+    <t>ENSG00000131002.10</t>
+  </si>
+  <si>
+    <t>ENSG00000114374.11</t>
+  </si>
+  <si>
+    <t>ENSG00000183878.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,10 +177,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,12 +206,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="probes" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="probes" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,201 +479,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>-4.6756636015495197</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.20774725617851E-14</v>
+      <c r="C2" s="3">
+        <v>9.6524826600000004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.78E-166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-5.5123336100809404</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.4503857884450901E-14</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.3350849999999994</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.6299999999999997E-156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.0827106401122899</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.7857883980253402E-14</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-7.9129234000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.1099999999999999E-154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.64257507662722</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.3855992509796601E-10</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.0956443599999997</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.86E-148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.9907865348170004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.1877729813231701E-9</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.2854491499999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.0899999999999993E-130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.9246586144378601</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.2882843643546501E-9</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.6014541800000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.5200000000000006E-129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.5825316018331801</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.6365742765155398E-8</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.9159729199999997</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.6800000000000007E-127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.6548089288501502</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.3080741458773501E-7</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7.5156676400000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0000000000000001E-122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.8874965831342898</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.5052031245182401E-7</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.1369064299999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.5299999999999998E-121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.15318695032014</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.7985017988904E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.0897082225922401</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.3717908123538E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.4503580434549099</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.5954908398979399E-5</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.87991931</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.5699999999999998E-115</v>
       </c>
     </row>
   </sheetData>
